--- a/messages.xlsx
+++ b/messages.xlsx
@@ -1,34 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baderitarji/Desktop/flask_whatsapp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861AD340-EB8A-844E-A749-99EC606818E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>whatsapp:+12056832528</t>
+  </si>
+  <si>
+    <t>Test message</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +68,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,29 +370,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Sender</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Message</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/messages.xlsx
+++ b/messages.xlsx
@@ -1,55 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baderitarji/Desktop/flask_whatsapp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861AD340-EB8A-844E-A749-99EC606818E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="purchase" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="maintenance" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>whatsapp:+12056832528</t>
-  </si>
-  <si>
-    <t>Test message</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,23 +55,185 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="18"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="18"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="18"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="18"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="18"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C34" headerRowCount="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C34"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Details" dataDxfId="2"/>
+    <tableColumn id="2" name="Amount" dataDxfId="1"/>
+    <tableColumn id="3" name="Purchase Type" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,31 +520,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col width="37.33203125" customWidth="1" min="1" max="1"/>
+    <col width="31.1640625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sender</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>whatsapp:+12056832528</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test message</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>whatsapp:+12056832528</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test message</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>whatsapp:+966555563603</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>whatsapp:+966555563603</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>السلام عليكم ورحمة الله وبركاته</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>whatsapp:+966555563603</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>whatsapp:+966555000280</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>شكوكو</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="67.5" customWidth="1" min="1" max="1"/>
+    <col width="41.6640625" customWidth="1" min="2" max="2"/>
+    <col width="36.6640625" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Purchase Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>شراء عدد 500 طراحة</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>الأثاث</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="24" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>شراء اثاث (تفاصيل أخرى: شراء ادوات مكتبية)</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>أخرى</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="24" customHeight="1">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="24" customHeight="1">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="24" customHeight="1">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+    </row>
+    <row r="10" ht="24" customHeight="1">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11" ht="24" customHeight="1">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12" ht="24" customHeight="1">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="13" ht="24" customHeight="1">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+    </row>
+    <row r="14" ht="24" customHeight="1">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+    </row>
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+    </row>
+    <row r="16" ht="24" customHeight="1">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+    </row>
+    <row r="17" ht="24" customHeight="1">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+    </row>
+    <row r="18" ht="24" customHeight="1">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+    </row>
+    <row r="19" ht="24" customHeight="1">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+    </row>
+    <row r="20" ht="24" customHeight="1">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+    </row>
+    <row r="21" ht="24" customHeight="1">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+    </row>
+    <row r="22" ht="24" customHeight="1">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+    </row>
+    <row r="23" ht="24" customHeight="1">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+    </row>
+    <row r="24" ht="24" customHeight="1">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+    </row>
+    <row r="25" ht="24" customHeight="1">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+    </row>
+    <row r="26" ht="24" customHeight="1">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+    </row>
+    <row r="27" ht="24" customHeight="1">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+    </row>
+    <row r="28" ht="24" customHeight="1">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+    </row>
+    <row r="29" ht="24" customHeight="1">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+    </row>
+    <row r="30" ht="24" customHeight="1">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+    </row>
+    <row r="31" ht="24" customHeight="1">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+    </row>
+    <row r="32" ht="24" customHeight="1">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+    </row>
+    <row r="33" ht="24" customHeight="1">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+    </row>
+    <row r="34" ht="24" customHeight="1">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+    </row>
+    <row r="35" ht="24" customHeight="1">
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+    </row>
+    <row r="36" ht="24" customHeight="1">
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="2" t="n"/>
+    </row>
+    <row r="37" ht="24" customHeight="1">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+    </row>
+    <row r="38" ht="24" customHeight="1">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>شراء ادوات نظافة (تفاصيل أخرى: أدوات نظافة)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>أخرى</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>غسالات ومكيفات العدد 30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>الصيانة</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>الصيانة</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.6640625" customWidth="1" min="1" max="1"/>
+    <col width="43.1640625" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>الرقم</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>تفاصيل طلب الصيانة</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>whatsapp:+966552069631</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>تغيير سخان غرفة رقم 1012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>whatsapp:+966555563603</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>تغيير الكاميرات في المدخل والدور الرابع فندق برج العالم</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>whatsapp:+966555563603</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>تغيير الكاميرات في المدخل والدور الرابع فندق برج العالم</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>whatsapp:+966552904718</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>تغير كاميرات سكن الخالديه حياة الريجنسي سكن رقم ١</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>whatsapp:+966555000280</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>كاميرات برج العالم 1</t>
+        </is>
       </c>
     </row>
   </sheetData>
